--- a/Invoices/Invoice CRS-20160424.xlsx
+++ b/Invoices/Invoice CRS-20160424.xlsx
@@ -1366,14 +1366,14 @@
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
       <c r="F22" s="77">
-        <v>7.25</v>
+        <v>9.25</v>
       </c>
       <c r="G22" s="70">
         <v>120</v>
       </c>
       <c r="H22" s="35">
         <f>G22*F22</f>
-        <v>870</v>
+        <v>1110</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -1387,14 +1387,14 @@
       </c>
       <c r="F23" s="76">
         <f>SUM(F15:F22)</f>
-        <v>37.75</v>
+        <v>39.75</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="39">
         <f>SUM(H15:H22)</f>
-        <v>4530</v>
+        <v>4770</v>
       </c>
       <c r="I23" s="40"/>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="H30" s="59">
         <f>H23</f>
-        <v>4530</v>
+        <v>4770</v>
       </c>
       <c r="I30" s="60"/>
     </row>
